--- a/mc/indicators/xl/GDP.xlsx
+++ b/mc/indicators/xl/GDP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
   <si>
     <t>Economy</t>
   </si>
@@ -8510,83 +8510,83 @@
       <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>91</v>
+      <c r="B19" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.2</v>
       </c>
       <c r="E19" s="1">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="F19" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H19" s="1">
         <v>3.1</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="J19" s="1">
         <v>2.8</v>
       </c>
-      <c r="H19" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="J19" s="1">
-        <v>3</v>
-      </c>
       <c r="K19" s="1">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L19" s="1">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="M19" s="1">
         <v>1.6</v>
       </c>
       <c r="N19" s="1">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O19" s="1">
         <v>2</v>
       </c>
       <c r="P19" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-3.4</v>
+      </c>
+      <c r="V19" s="1">
         <v>3.1</v>
       </c>
-      <c r="Q19" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="S19" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U19" s="1">
-        <v>-3.6</v>
-      </c>
-      <c r="V19" s="1">
-        <v>2.5</v>
-      </c>
       <c r="W19" s="1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="X19" s="1">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z19" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AB19" s="1">
         <v>1.7</v>
@@ -8595,7 +8595,7 @@
         <v>2.2</v>
       </c>
       <c r="AD19" s="1">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE19" s="1">
         <v>1.8</v>
@@ -8607,7 +8607,7 @@
         <v>1.7</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="20" spans="1:34">
